--- a/Data/param_input.xlsx
+++ b/Data/param_input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.volvocars.net/personal/xyang118_volvocars_com/Documents/Documents/upload/Git/Newest/Glance_sampling/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.volvocars.net/personal/xyang118_volvocars_com/Documents/Documents/upload/Git/Newest/Glance_sampling/Glance_sampling/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{ECFE9301-F856-45D4-A61B-31A6E83E9CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BCE76F5-F32F-4514-89D2-A06A8A4A2264}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{ECFE9301-F856-45D4-A61B-31A6E83E9CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3247CE88-F2FB-406D-97C0-EA1F734EC143}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49922384-BA17-40C3-A2AE-F9A2620CD2B5}"/>
   </bookViews>
@@ -401,7 +401,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,10 +429,10 @@
     </row>
     <row r="2" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
         <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -466,9 +466,15 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>

--- a/Data/param_input.xlsx
+++ b/Data/param_input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.volvocars.net/personal/xyang118_volvocars_com/Documents/Documents/upload/Git/Newest/Glance_sampling/Glance_sampling/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XYANG118\OneDrive - Volvo Cars\Documents\upload\Git\Newest\Glance_sampling\Glance_sampling\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{ECFE9301-F856-45D4-A61B-31A6E83E9CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3247CE88-F2FB-406D-97C0-EA1F734EC143}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CB7838-0A72-4E17-AB19-BE82C7E5B90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49922384-BA17-40C3-A2AE-F9A2620CD2B5}"/>
   </bookViews>
@@ -429,10 +429,10 @@
     </row>
     <row r="2" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2">
         <v>10</v>

--- a/Data/param_input.xlsx
+++ b/Data/param_input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XYANG118\OneDrive - Volvo Cars\Documents\upload\Git\Newest\Glance_sampling\Glance_sampling\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.volvocars.net/personal/xyang118_volvocars_com/Documents/Documents/upload/Git/Newest/Glance_sampling/Glance_sampling/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CB7838-0A72-4E17-AB19-BE82C7E5B90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{08CB7838-0A72-4E17-AB19-BE82C7E5B90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD00C01B-72F8-48B6-BDE7-3237B7CBCFA3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49922384-BA17-40C3-A2AE-F9A2620CD2B5}"/>
   </bookViews>
@@ -401,7 +401,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,7 +429,7 @@
     </row>
     <row r="2" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -445,7 +445,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>10</v>

--- a/Data/param_input.xlsx
+++ b/Data/param_input.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.volvocars.net/personal/xyang118_volvocars_com/Documents/Documents/upload/Git/Newest/Glance_sampling/Glance_sampling/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{08CB7838-0A72-4E17-AB19-BE82C7E5B90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD00C01B-72F8-48B6-BDE7-3237B7CBCFA3}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{08CB7838-0A72-4E17-AB19-BE82C7E5B90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{472D7F98-A28E-49D9-9D08-EFB455EB2AB7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49922384-BA17-40C3-A2AE-F9A2620CD2B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -401,10 +401,10 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
@@ -429,10 +429,10 @@
     </row>
     <row r="2" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -441,40 +441,22 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>

--- a/Data/param_input.xlsx
+++ b/Data/param_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.volvocars.net/personal/xyang118_volvocars_com/Documents/Documents/Newest20220908/Glance_sampling/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.volvocars.net/personal/xyang118_volvocars_com/Documents/Documents/glance_simulation/sim1/Glance_sampling/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{460C9D46-C5AB-407E-89D1-D5B6F3118C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47D374B9-E361-4B4D-AFA8-263E7779FAD8}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{460C9D46-C5AB-407E-89D1-D5B6F3118C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDD65838-EC81-4595-B5E5-7A2AC5D3D280}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,10 +423,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="2">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>

--- a/Data/param_input.xlsx
+++ b/Data/param_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.volvocars.net/personal/xyang118_volvocars_com/Documents/Documents/glance_simulation/sim1/Glance_sampling/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XYANG118\OneDrive - Volvo Cars\Documents\glance_simulation\sim3\Glance_sampling\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{460C9D46-C5AB-407E-89D1-D5B6F3118C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDD65838-EC81-4595-B5E5-7A2AC5D3D280}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12333A5-4532-4DDB-AC96-0792DE4CF8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
     <t>Sim_n</t>
   </si>
   <si>
-    <t>n_cases_per_iter</t>
+    <t>batch_size</t>
   </si>
   <si>
-    <t>total_nboot</t>
+    <t>nboot</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,13 +420,13 @@
     </row>
     <row r="2" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2">
         <v>100</v>
-      </c>
-      <c r="B2" s="2">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>500</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>

--- a/Data/param_input.xlsx
+++ b/Data/param_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XYANG118\OneDrive - Volvo Cars\Documents\glance_simulation\sim3\Glance_sampling\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XYANG118\OneDrive - Volvo Cars\Documents\glance_simulation\sim1\Glance_sampling\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12333A5-4532-4DDB-AC96-0792DE4CF8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283F9B9D-E843-4415-9164-AF642E2ED026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="1452" windowWidth="13836" windowHeight="7176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,10 +420,10 @@
     </row>
     <row r="2" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>100</v>
